--- a/Colecciones_xlsx/Kaldheim (KHM).xlsx
+++ b/Colecciones_xlsx/Kaldheim (KHM).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A160"/>
+  <dimension ref="A1:A205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Barkchannel Pathway // Tidechannel Pathway</t>
+          <t>Axgard Cavalry</t>
         </is>
       </c>
     </row>
@@ -528,1027 +528,1342 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bearded Axe</t>
+          <t>Barkchannel Pathway // Tidechannel Pathway</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Behold the Multiverse</t>
+          <t>Bearded Axe</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>"Big-Axe Diplomat"</t>
+          <t>Behold the Multiverse</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Binding the Old Gods</t>
+          <t>"Big-Axe Diplomat"</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Blightstep Pathway // Searstep Pathway</t>
+          <t>"Big-Booty Ox"</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blightstep Pathway // Searstep Pathway</t>
+          <t>Binding the Old Gods</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bloodline Pretender</t>
+          <t>Blightstep Pathway // Searstep Pathway</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bretagard Stronghold</t>
+          <t>Blightstep Pathway // Searstep Pathway</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Broken Wings</t>
+          <t>Blizzard Brawl</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Calamity Bearer</t>
+          <t>Bloodline Pretender</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Canopy Tactician</t>
+          <t>Boreal Outrider</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cleaving Reaper</t>
+          <t>Bretagard Stronghold</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cosmos Charger</t>
+          <t>Broken Wings</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Darkbore Pathway // Slitherbore Pathway</t>
+          <t>Calamity Bearer</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Darkbore Pathway // Slitherbore Pathway</t>
+          <t>Calamity Bearer</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Doomskar Oracle</t>
+          <t>Canopy Tactician</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>"Dragon Dad uwu…"</t>
+          <t>Cleaving Reaper</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Draugr Necromancer</t>
+          <t>Cosmos Charger</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>"Draugr Scourge Lord"</t>
+          <t>Cosmos Charger</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Elderfang Ritualist</t>
+          <t>Darkbore Pathway // Slitherbore Pathway</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Elven Ambush</t>
+          <t>Darkbore Pathway // Slitherbore Pathway</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Elvish Warmaster</t>
+          <t>Divine Gambit</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Elvish Warmaster</t>
+          <t>Dogged Pursuit</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Eradicator Valkyrie</t>
+          <t>Doomskar Oracle</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Esika, God of the Tree // The Prismatic Bridge</t>
+          <t>"Dragon Dad uwu…"</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Esika's Chariot</t>
+          <t>Draugr Necromancer</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>"Fabulous Berserker"</t>
+          <t>Draugr Necromancer</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Faceless Haven</t>
+          <t>Egon, God of Death // Throne of Death</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fire Giant's Fury</t>
+          <t>Elderfang Disciple</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Firja, Judge of Valor</t>
+          <t>Elderfang Ritualist</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Forging the Tyrite Sword</t>
+          <t>Elven Ambush</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>"Forsworn Cleric"</t>
+          <t>Elvish Warmaster</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Frost Bite</t>
+          <t>Elvish Warmaster</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Frost Bite</t>
+          <t>Eradicator Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>"Gatorade™ Ice Punch"</t>
+          <t>Eradicator Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Giant's Amulet</t>
+          <t>Esika, God of the Tree // The Prismatic Bridge</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Giant's Grasp</t>
+          <t>Esika, God of the Tree // The Prismatic Bridge</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gilded Assault Cart</t>
+          <t>Esika's Chariot</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Glacial Floodplain</t>
+          <t>Esika's Chariot</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gladewalker Ritualist</t>
+          <t>"Fabulous Berserker"</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Glimpse the Cosmos</t>
+          <t>Faceless Haven</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gods' Hall Guardian</t>
+          <t>Faceless Haven</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Goldspan Dragon</t>
+          <t>Feed the Serpent</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Goldspan Dragon</t>
+          <t>Fire Giant's Fury</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Guardian Gladewalker</t>
+          <t>Firja, Judge of Valor</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hagi Mob</t>
+          <t>Firja, Judge of Valor</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hailstorm Valkyrie</t>
+          <t>Forging the Tyrite Sword</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Halvar, God of Battle // Sword of the Realms</t>
+          <t>Frost Bite</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Halvar, God of Battle // Sword of the Realms</t>
+          <t>Frost Bite</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hengegate Pathway // Mistgate Pathway</t>
+          <t>"Gatorade™ Ice Punch"</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hengegate Pathway // Mistgate Pathway</t>
+          <t>Giant's Amulet</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Highland Forest</t>
+          <t>Giant's Grasp</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ice Tunnel</t>
+          <t>Gilded Assault Cart</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Inga Rune-Eyes</t>
+          <t>Glacial Floodplain</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Inga Rune-Eyes</t>
+          <t>Gladewalker Ritualist</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Invasion of the Giants</t>
+          <t>Glimpse the Cosmos</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Kaya's Onslaught</t>
+          <t>Gods' Hall Guardian</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Kaya the Inexorable</t>
+          <t>Goldspan Dragon</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kaya the Inexorable</t>
+          <t>Goldspan Dragon</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Koll, the Forgemaster</t>
+          <t>Grim Draugr</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Koll, the Forgemaster</t>
+          <t>Guardian Gladewalker</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Kolvori, God of Kinship // The Ringheart Crest</t>
+          <t>Hagi Mob</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Koma, Cosmos Serpent</t>
+          <t>Hailstorm Valkyrie</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Koma's Faithful</t>
+          <t>Halvar, God of Battle // Sword of the Realms</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Littjara Kinseekers</t>
+          <t>Halvar, God of Battle // Sword of the Realms</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Magda, Brazen Outlaw</t>
+          <t>Harald, Kind of Skemfar</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Magda, Brazen Outlaw</t>
+          <t>Harald Unites the Elves</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Masked Vandal</t>
+          <t>Hengegate Pathway // Mistgate Pathway</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Masked Vandal</t>
+          <t>Hengegate Pathway // Mistgate Pathway</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Maskwood Nexus</t>
+          <t>Highland Forest</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Moritte of the Frost</t>
+          <t>Ice Tunnel</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Niko Aris</t>
+          <t>Inga Rune-Eyes</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Niko Aris</t>
+          <t>Inga Rune-Eyes</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Old-Growth Troll</t>
+          <t>Invasion of the Giants</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Old-Growth Troll</t>
+          <t>Iron Verdict</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Path to the World Tree</t>
+          <t>"Jack and Jill Storm the Hill"</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Pyre of Heroes</t>
+          <t>Jorn, God of Winter // Kaldring, the Rimestaff</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Pyre of Heroes</t>
+          <t>"Kardur, Doomscourge"</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Quakebringer</t>
+          <t>"Kardur, Doomscourge"</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rampage of the Valkyries</t>
+          <t>Kardur's Vicious Return</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ravenform</t>
+          <t>Kaya's Onslaught</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Kaya the Inexorable</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Kaya the Inexorable</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Realmwalker</t>
+          <t>Koll, the Forgemaster</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Reckless Crew</t>
+          <t>Koll, the Forgemaster</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Reflections of Littjara</t>
+          <t>Kolvori, God of Kinship // The Ringhart Crest</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Reflections of Littjara</t>
+          <t>Kolvori, God of Kinship // The Ringhart Crest</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Renegade Reaper</t>
+          <t>Koma, Cosmos Serpent</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Replicating Ring</t>
+          <t>Koma, Cosmos Serpent</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rimewood Falls</t>
+          <t>Koma's Faithful</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>"Rise of the Marnhorde"</t>
+          <t>Littjara Kinseekers</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sarulf, Realm Eater</t>
+          <t>Magda, Brazen Outlaw</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Sarulf, Realm Eater</t>
+          <t>Magda, Brazen Outlaw</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sarulf's Packmate</t>
+          <t>Masked Vandal</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Saw It Coming</t>
+          <t>Masked Vandal</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Sculptor of Winter</t>
+          <t>Maskwood Nexus</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>"Search for Glory"</t>
+          <t>Maskwood Nexus</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Seize the Spoils</t>
+          <t>"Midas Touch't"</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Showdown of the Skalds</t>
+          <t>Moritte of the Frost</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sigrid, God-Favored</t>
+          <t>Niko Aris</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sigrid, God-Favored</t>
+          <t>Niko Aris</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>"Skyrim Bear Attack"</t>
+          <t>Old-Growth Troll</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Snakeskin Veil</t>
+          <t>Old-Growth Troll</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Snow-Covered Forest</t>
+          <t>Open the Omenpaths</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Snow-Covered Forest</t>
+          <t>Path to the World Tree</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Snow-Covered Island</t>
+          <t>Pyre of Heroes</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Snow-Covered Island</t>
+          <t>Pyre of Heroes</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Snow-Covered Mountain</t>
+          <t>Quakebringer</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Snow-Covered Mountain</t>
+          <t>Quakebringer</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Snow-Covered Plains</t>
+          <t>"Raiding Karve"</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Snow-Covered Plains</t>
+          <t>Rally the Ranks</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Snow-Covered Swamp</t>
+          <t>Rally the Ranks</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Snow-Covered Swamp</t>
+          <t>Rampage of the Valkyries</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Snowfield Sinkhole</t>
+          <t>Ravenform</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>"Spirit Blade"</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Spirit of the Aldergard</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Starnheim Aspirant</t>
+          <t>Realmwalker</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Sulfurous Mine</t>
+          <t>Reckless Crew</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Surtland Elementalist</t>
+          <t>Reckless Crew</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Surtland Flinger</t>
+          <t>Reflections of Littjara</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Tergrid, God of Fear // Tergrid's Lantern</t>
+          <t>Reflections of Littjara</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Tergrid, God of Fear // Tergrid's Lantern</t>
+          <t>Reflections of Littjara</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>"The Man Who Passes the Sentence Should Swing the Axe"</t>
+          <t>Renegade Reaper</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>The Trickster-God's Heist</t>
+          <t>Replicating Ring</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>The World Tree</t>
+          <t>Rimewood Falls</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Thornmantle Striker</t>
+          <t>Rise of the Dread Marn</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Toski, Bearer of Secrets</t>
+          <t>Rise of the Dread Marn</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Toski, Bearer of Secrets</t>
+          <t>Roots of Wisdom</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>"Trolls™️ Official Trailer"</t>
+          <t>Run Ashore</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Tyvar Kell</t>
+          <t>Sarulf, Realm Eater</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Undersea Invader</t>
+          <t>Sarulf, Realm Eater</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>"Unshared Triumph"</t>
+          <t>Sarulf's Packmate</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+          <t>Saw It Coming</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+          <t>Sculptor of Winter</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+          <t>Search for Glory</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Valkyrie Harbinger</t>
+          <t>Seize the Spoils</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Varragoth, Bloodsky Sire</t>
+          <t>Showdown of the Skalds</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Varragoth, Bloodsky Sire</t>
+          <t>Sigrid, God-Favored</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Vega, the Watcher</t>
+          <t>Sigrid, God-Favored</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Village Rites</t>
+          <t>Skemfar Shadowsage</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Volatile Fjord</t>
+          <t>Snakeskin Veil</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Vorinclex, Monstrous Raider</t>
+          <t>Snow-Covered Forest</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Vorinclex, Monstrous Raider</t>
+          <t>Snow-Covered Forest</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>|lornScs DuJhetmiserc.</t>
+          <t>Snow-Covered Island</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Warchanter Skald</t>
+          <t>Snow-Covered Island</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Woodland Chasm</t>
+          <t>Snow-Covered Mountain</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
+        <is>
+          <t>Snow-Covered Mountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Snow-Covered Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Snow-Covered Plains</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Snow-Covered Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Snow-Covered Swamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Snowfield Sinkhole</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Spectral Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Spirit of the Aldergard</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Starnheim Aspirant</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Sulfurous Mire</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Surtland Elementalist</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Surtland Flinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Tergrid, God of Fright // Tergrid's Lantern</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tergrid, God of Fright // Tergrid's Lantern</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Tergrid's Shadow</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>The Trickster-God's Heist</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>The World Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Thornmantle Striker</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Tibalt's Trickery</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Tibalt's Trickery</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Toralf, God of Fury // Toralf's Hammer</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Tormentor's Helm</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Toski, Bearer of Secrets</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Toski, Bearer of Secrets</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Tyvar Kell</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Tyvar Kell</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Undersea Invader</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Valki, God of Lies // Tibalt, Cosmic Impostor</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Valkyrie Harbinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Varragoth, Bloodsky Sire</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Varragoth, Bloodsky Sire</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Vega, the Watcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Vega, the Watcher</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Village Rites</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Volatile Fjord</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Vorinclex, Monstrous Raider</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Vorinclex, Monstrous Raider</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>|lornScs DuJhetmiserc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>"Wake the Draugr"</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Waking the Trolls</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Warchanter Skald</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Withercrown</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Woodland Chasm</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Youthful Valkyrie</t>
         </is>
